--- a/docs/BD/Relacionalv2.0.xlsx
+++ b/docs/BD/Relacionalv2.0.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
-    <t>cod_id</t>
-  </si>
-  <si>
     <t>cif_general</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>type_id</t>
-  </si>
-  <si>
     <t>nacionality</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>cif_estamping</t>
   </si>
   <si>
-    <t>usernamr</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>estate</t>
   </si>
   <si>
-    <t>numbercard</t>
-  </si>
-  <si>
     <t>account_number</t>
   </si>
   <si>
@@ -119,6 +107,18 @@
   </si>
   <si>
     <t>Request</t>
+  </si>
+  <si>
+    <t>cif_applicant</t>
+  </si>
+  <si>
+    <t>type_cif</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>cardnumber</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -267,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,68 +353,6 @@
           <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
             <a:t>Si es administrador, cif_general va vacio</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2019300" cy="952500"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="5238750"/>
-          <a:ext cx="2019300" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="1"/>
-            <a:t>Nota:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0"/>
-            <a:t>cod_id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" baseline="0"/>
-            <a:t> es la llave primaria del solicitante(DNI).</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100"/>
         </a:p>
@@ -713,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,53 +665,53 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -780,153 +719,153 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -934,6 +873,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -943,7 +883,9 @@
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="15"/>
+    </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
